--- a/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>144329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113987</v>
+        <v>111465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176356</v>
+        <v>176286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3539265424687565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2795212302944453</v>
+        <v>0.2733367614960053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4324640804964226</v>
+        <v>0.4322916396509413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -762,19 +762,19 @@
         <v>136368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112051</v>
+        <v>111454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163589</v>
+        <v>160482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3761759575583364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3090959205435914</v>
+        <v>0.3074483390107599</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4512662836070159</v>
+        <v>0.4426937845470322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -783,19 +783,19 @@
         <v>280697</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241190</v>
+        <v>242343</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>322375</v>
+        <v>322007</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3643973027676097</v>
+        <v>0.3643973027676096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3131102054834499</v>
+        <v>0.3146060298428024</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4185024817639042</v>
+        <v>0.4180257113759266</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>263464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231437</v>
+        <v>231507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293806</v>
+        <v>296328</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6460734575312437</v>
+        <v>0.6460734575312436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5675359195035774</v>
+        <v>0.5677083603490592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.720478769705555</v>
+        <v>0.7266632385039946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -833,19 +833,19 @@
         <v>226144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198923</v>
+        <v>202030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250461</v>
+        <v>251058</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6238240424416635</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5487337163929839</v>
+        <v>0.5573062154529681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6909040794564082</v>
+        <v>0.6925516609892401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -854,19 +854,19 @@
         <v>489608</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447930</v>
+        <v>448298</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>529115</v>
+        <v>527962</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6356026972323905</v>
+        <v>0.6356026972323904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5814975182360957</v>
+        <v>0.5819742886240734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6868897945165506</v>
+        <v>0.6853939701571977</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>170527</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145950</v>
+        <v>146560</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198490</v>
+        <v>196846</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3575824022045347</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3060456459127639</v>
+        <v>0.3073247084258579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4162183507007361</v>
+        <v>0.4127712275428125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -979,19 +979,19 @@
         <v>128892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110192</v>
+        <v>109917</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150943</v>
+        <v>151229</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2577129531897274</v>
+        <v>0.2577129531897273</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2203233961968829</v>
+        <v>0.2197739553103047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3018032092401596</v>
+        <v>0.3023749673418538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>223</v>
@@ -1000,19 +1000,19 @@
         <v>299419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>265459</v>
+        <v>265592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334865</v>
+        <v>334233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.306459551731758</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2717012541296839</v>
+        <v>0.2718368113812162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3427390907667083</v>
+        <v>0.3420920884958327</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>306363</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>278400</v>
+        <v>280044</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>330940</v>
+        <v>330330</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.642417597795465</v>
+        <v>0.6424175977954651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5837816492992639</v>
+        <v>0.5872287724571876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.693954354087236</v>
+        <v>0.6926752915741421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -1050,19 +1050,19 @@
         <v>371245</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349194</v>
+        <v>348908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389945</v>
+        <v>390220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7422870468102727</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6981967907598405</v>
+        <v>0.6976250326581463</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7796766038031172</v>
+        <v>0.7802260446896954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>538</v>
@@ -1071,19 +1071,19 @@
         <v>677608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642162</v>
+        <v>642794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>711568</v>
+        <v>711435</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.693540448268242</v>
+        <v>0.6935404482682419</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6572609092332918</v>
+        <v>0.6579079115041675</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7282987458703165</v>
+        <v>0.728163188618784</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>188872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164058</v>
+        <v>165201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213135</v>
+        <v>213398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3048109166454745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2647640864766661</v>
+        <v>0.2666081778046879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3439669285519025</v>
+        <v>0.3443906640607411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>221</v>
@@ -1196,19 +1196,19 @@
         <v>171719</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151838</v>
+        <v>151191</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191179</v>
+        <v>190392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2770283828532342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2449548676779793</v>
+        <v>0.2439105936321556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3084216504560518</v>
+        <v>0.3071527011716841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>388</v>
@@ -1217,19 +1217,19 @@
         <v>360592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330461</v>
+        <v>330557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389460</v>
+        <v>392688</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2909171484261537</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2666088132483075</v>
+        <v>0.2666862007463658</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3142074652956178</v>
+        <v>0.3168120411222169</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>430766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406503</v>
+        <v>406240</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455580</v>
+        <v>454437</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6951890833545254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6560330714480973</v>
+        <v>0.6556093359392587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7352359135233338</v>
+        <v>0.7333918221953121</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>622</v>
@@ -1267,19 +1267,19 @@
         <v>448142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428682</v>
+        <v>429469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>468023</v>
+        <v>468670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7229716171467658</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6915783495439484</v>
+        <v>0.692847298828316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7550451323220209</v>
+        <v>0.7560894063678444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1000</v>
@@ -1288,19 +1288,19 @@
         <v>878907</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>850039</v>
+        <v>846811</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>909038</v>
+        <v>908942</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7090828515738462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6857925347043822</v>
+        <v>0.6831879588777831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7333911867516923</v>
+        <v>0.7333137992536342</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>203551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>178979</v>
+        <v>179898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228710</v>
+        <v>229974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2905304385518415</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2554584632141543</v>
+        <v>0.256770749940391</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3264410346315529</v>
+        <v>0.3282445251653356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>262</v>
@@ -1413,19 +1413,19 @@
         <v>178531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160124</v>
+        <v>159097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>198612</v>
+        <v>198350</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2426312250167576</v>
+        <v>0.2426312250167577</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2176156070223675</v>
+        <v>0.2162190238068444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2699223853401198</v>
+        <v>0.2695667799134138</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>448</v>
@@ -1434,19 +1434,19 @@
         <v>382082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>353264</v>
+        <v>351773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>415465</v>
+        <v>412039</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2659940240090655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2459316102752674</v>
+        <v>0.2448939884576241</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2892344531931619</v>
+        <v>0.2868490665478448</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>497066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>471907</v>
+        <v>470643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>521638</v>
+        <v>520719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7094695614481585</v>
+        <v>0.7094695614481584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6735589653684469</v>
+        <v>0.6717554748346646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7445415367858458</v>
+        <v>0.7432292500596093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>877</v>
@@ -1484,19 +1484,19 @@
         <v>557281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>537200</v>
+        <v>537462</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>575688</v>
+        <v>576715</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7573687749832422</v>
+        <v>0.7573687749832424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7300776146598805</v>
+        <v>0.7304332200865861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7823843929776325</v>
+        <v>0.7837809761931556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1356</v>
@@ -1505,19 +1505,19 @@
         <v>1054348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1020965</v>
+        <v>1024391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1083166</v>
+        <v>1084657</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7340059759909343</v>
+        <v>0.7340059759909345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.710765546806838</v>
+        <v>0.7131509334521552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7540683897247327</v>
+        <v>0.7551060115423758</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>152984</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133595</v>
+        <v>133309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176784</v>
+        <v>175463</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2522559068213479</v>
+        <v>0.252255906821348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2202847559642503</v>
+        <v>0.2198137203104495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2914995592815968</v>
+        <v>0.2893213088557589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -1630,19 +1630,19 @@
         <v>121768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107028</v>
+        <v>107195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137702</v>
+        <v>137987</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2003587635155909</v>
+        <v>0.200358763515591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1761055525736648</v>
+        <v>0.1763795190967784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265768697975809</v>
+        <v>0.2270452136413784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>353</v>
@@ -1651,19 +1651,19 @@
         <v>274752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248972</v>
+        <v>250414</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301058</v>
+        <v>300369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2262798224931349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2050479628214897</v>
+        <v>0.2062356644637675</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2479449283879001</v>
+        <v>0.2473769113762436</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>453479</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>429679</v>
+        <v>431000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472868</v>
+        <v>473154</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7477440931786521</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7085004407184031</v>
+        <v>0.710678691144241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7797152440357497</v>
+        <v>0.7801862796895506</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>813</v>
@@ -1701,19 +1701,19 @@
         <v>485982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>470048</v>
+        <v>469763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>500722</v>
+        <v>500555</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.799641236484409</v>
+        <v>0.7996412364844091</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734231302024189</v>
+        <v>0.7729547863586217</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8238944474263338</v>
+        <v>0.8236204809032215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1307</v>
@@ -1722,19 +1722,19 @@
         <v>939462</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>913156</v>
+        <v>913845</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>965242</v>
+        <v>963800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7737201775068649</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7520550716120993</v>
+        <v>0.7526230886237565</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7949520371785103</v>
+        <v>0.7937643355362327</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>81374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69291</v>
+        <v>68217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97083</v>
+        <v>94464</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.200425081395866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1706645900580872</v>
+        <v>0.1680200242770167</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2391164809971822</v>
+        <v>0.2326651795856413</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -1847,19 +1847,19 @@
         <v>74552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63796</v>
+        <v>63771</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86366</v>
+        <v>86438</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1702469136798033</v>
+        <v>0.1702469136798032</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1456841446134362</v>
+        <v>0.1456281426046864</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1972239796776092</v>
+        <v>0.1973892098019955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -1868,19 +1868,19 @@
         <v>155926</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137481</v>
+        <v>140290</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173221</v>
+        <v>176023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.184765658003789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1629094157811493</v>
+        <v>0.1662371481297586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2052589350464034</v>
+        <v>0.2085792969790452</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>324633</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308924</v>
+        <v>311543</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>336716</v>
+        <v>337790</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.799574918604134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7608835190028177</v>
+        <v>0.7673348204143587</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8293354099419125</v>
+        <v>0.8319799757229834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>696</v>
@@ -1918,19 +1918,19 @@
         <v>363354</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>351540</v>
+        <v>351468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374110</v>
+        <v>374135</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8297530863201968</v>
+        <v>0.8297530863201966</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8027760203223908</v>
+        <v>0.8026107901980046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8543158553865637</v>
+        <v>0.8543718573953135</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1150</v>
@@ -1939,19 +1939,19 @@
         <v>687987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>670692</v>
+        <v>667890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>706432</v>
+        <v>703623</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.815234341996211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7947410649535966</v>
+        <v>0.791420703020955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8370905842188506</v>
+        <v>0.8337628518702415</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>64966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53621</v>
+        <v>54323</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77552</v>
+        <v>77013</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2094327895339379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1728614335574016</v>
+        <v>0.1751220693461678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2500089986392945</v>
+        <v>0.2482716868062547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -2064,19 +2064,19 @@
         <v>71727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61020</v>
+        <v>61228</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85995</v>
+        <v>82683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1545846732733641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1315090405490947</v>
+        <v>0.1319567695177974</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1853344438571334</v>
+        <v>0.1781961696147532</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>217</v>
@@ -2085,19 +2085,19 @@
         <v>136693</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120238</v>
+        <v>119513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153425</v>
+        <v>152713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1765607288739537</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1553070534736094</v>
+        <v>0.154370195234334</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1981732769346624</v>
+        <v>0.1972540528954183</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>245232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232646</v>
+        <v>233185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256577</v>
+        <v>255875</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7905672104660619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7499910013607055</v>
+        <v>0.7517283131937453</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8271385664425984</v>
+        <v>0.8248779306538322</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>758</v>
@@ -2135,19 +2135,19 @@
         <v>392272</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>378004</v>
+        <v>381316</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>402979</v>
+        <v>402771</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8454153267266358</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8146655561428666</v>
+        <v>0.821803830385247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8684909594509052</v>
+        <v>0.8680432304822027</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1121</v>
@@ -2156,19 +2156,19 @@
         <v>637504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>620772</v>
+        <v>621484</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>653959</v>
+        <v>654684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8234392711260461</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8018267230653375</v>
+        <v>0.8027459471045816</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8446929465263906</v>
+        <v>0.845629804765666</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>1006603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2853500960977597</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1109</v>
@@ -2281,19 +2281,19 @@
         <v>883558</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2009</v>
@@ -2302,19 +2302,19 @@
         <v>1890161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2605111505648273</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2521004</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2457542</v>
+        <v>2457020</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2581088</v>
+        <v>2580559</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.7146499039022404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.6965119227661558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.7315323253408202</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4244</v>
@@ -2352,19 +2352,19 @@
         <v>2844420</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2796444</v>
+        <v>2791949</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2894192</v>
+        <v>2893391</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7629927594309129</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.7489178360569376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.776128703543234</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6715</v>
@@ -2373,19 +2373,19 @@
         <v>5365424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5287182</v>
+        <v>5287364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5442509</v>
+        <v>5439386</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.7394888494351727</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.7287301992001592</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.7496826631838003</v>
       </c>
     </row>
     <row r="27">
